--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -57,12 +57,6 @@
     <t>车辆基本信息</t>
   </si>
   <si>
-    <t>司机端注册后</t>
-  </si>
-  <si>
-    <t>后台完善资料后点击更新</t>
-  </si>
-  <si>
     <t>车辆保险信息</t>
   </si>
   <si>
@@ -172,12 +166,6 @@
   </si>
   <si>
     <t>没有</t>
-  </si>
-  <si>
-    <t>私人小客车合乘驾驶员</t>
-  </si>
-  <si>
-    <t>行程发布</t>
   </si>
   <si>
     <t>私人小客车合乘订单</t>
@@ -253,6 +241,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>江苏省南京市鼓楼区华侨路街道爱德商务中心大涧银巷</t>
@@ -262,6 +251,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>16</t>
     </r>
@@ -270,6 +260,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -279,6 +270,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DepLongitude": 32.04357017126481,
@@ -290,6 +282,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>珠江路</t>
@@ -299,6 +292,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>63</t>
     </r>
@@ -307,6 +301,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号附近</t>
@@ -316,6 +311,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DestLongitude": 32.050621,
@@ -346,6 +342,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市中南网约交通服务有限公司</t>
@@ -355,6 +352,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "BusinessScope": "</t>
@@ -364,6 +362,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>网上约车服务；订制班车服务；出租车电召服务；代驾服务；利用自有媒介设计、制作、代理、发布国内各类广告；道路客运经营；道路货运经营</t>
@@ -373,6 +372,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "ContactAddress": "</t>
@@ -382,6 +382,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安徽省天长市芳草地</t>
@@ -391,6 +392,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -399,6 +401,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号楼</t>
@@ -408,6 +411,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>11-15</t>
     </r>
@@ -416,6 +420,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门面二层</t>
@@ -425,6 +430,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "RegCapital": "</t>
@@ -434,6 +440,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>壹仟万元</t>
@@ -443,6 +450,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Identifier": "91341181MA2N9H293T",
@@ -453,6 +461,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有限责任公司（自然人投资或控股）</t>
@@ -462,6 +471,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "LegalName": "</t>
@@ -471,6 +481,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>高玉礼</t>
@@ -480,6 +491,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "LegalID": "342321196810127413",
@@ -503,6 +515,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安徽天长农村商业银行股份有限公司永福支行</t>
@@ -512,6 +525,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Payld": "f",
@@ -522,6 +536,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>线上支付</t>
@@ -531,6 +546,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PayScope": "</t>
@@ -540,6 +556,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>全部</t>
@@ -549,6 +566,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PrepareBank": "</t>
@@ -558,6 +576,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安徽天长农村商业银行股份有限公司永福支行</t>
@@ -567,6 +586,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "UpdateTime": 20171230004041,
@@ -595,6 +615,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市中南网约交通服务有限公司</t>
@@ -604,6 +625,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DetailAddress": "</t>
@@ -613,6 +635,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市芳草地</t>
@@ -622,6 +645,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -630,6 +654,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号楼</t>
@@ -639,6 +664,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>11-15</t>
     </r>
@@ -647,6 +673,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门面二层</t>
@@ -656,6 +683,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "ResponsibleName": "</t>
@@ -665,6 +693,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘先国</t>
@@ -674,6 +703,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "ResponsiblePhone": "18955098999",
@@ -684,6 +714,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张玲</t>
@@ -693,6 +724,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "ManagerPhone": "18019890099",
@@ -704,6 +736,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市芳草地</t>
@@ -713,6 +746,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -721,6 +755,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号楼</t>
@@ -730,6 +765,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>11-15</t>
     </r>
@@ -738,6 +774,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>门面二层</t>
@@ -747,6 +784,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "UpdateTime": 26090315152644,
@@ -776,6 +814,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -785,6 +824,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "OperationArea": "</t>
@@ -794,6 +834,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市及周边</t>
@@ -803,6 +844,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "OwnerName": "</t>
@@ -812,6 +854,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天长市中南网约交通服务有限公司</t>
@@ -821,6 +864,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Organization": "</t>
@@ -830,6 +874,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -839,6 +884,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "CompanyId": "zncx",
@@ -887,6 +933,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -896,6 +943,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "GPSBrand": "</t>
@@ -905,6 +953,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -914,6 +963,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "FeePrintId": "</t>
@@ -923,6 +973,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -932,6 +983,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "FixState": "1",
@@ -942,6 +994,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -951,6 +1004,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "TransAgency": "</t>
@@ -960,6 +1014,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -969,6 +1024,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "EngineDisplace": "</t>
@@ -978,6 +1034,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -987,6 +1044,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "FuelType": "</t>
@@ -996,6 +1054,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1005,6 +1064,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "VIN": "</t>
@@ -1014,6 +1074,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1023,6 +1084,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "EngineId": "</t>
@@ -1032,6 +1094,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1041,6 +1104,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "VehicleColor": "</t>
@@ -1050,6 +1114,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1059,6 +1124,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "VehicleType": "</t>
@@ -1068,6 +1134,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1077,6 +1144,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Model": "</t>
@@ -1086,6 +1154,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1095,6 +1164,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Brand": "</t>
@@ -1104,6 +1174,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1113,6 +1184,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PlateColor": "</t>
@@ -1122,6 +1194,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白色</t>
@@ -1131,6 +1204,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "RegisterDate": "2017-12-26",
@@ -1147,6 +1221,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>已审</t>
@@ -1156,6 +1231,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Certificate": "122",
@@ -1167,6 +1243,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>皖</t>
@@ -1176,6 +1253,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>MD0456",
         "OwnerName": "</t>
@@ -1185,6 +1263,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要填</t>
@@ -1194,6 +1273,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Address": 340000,
@@ -1223,6 +1303,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1232,6 +1313,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "InsurCom": "</t>
@@ -1241,6 +1323,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1250,6 +1333,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "InsurNum": "</t>
@@ -1259,6 +1343,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1268,6 +1353,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "InsurType": "</t>
@@ -1277,6 +1363,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1286,6 +1373,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "InsurCount": 100,
@@ -1312,6 +1400,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1321,6 +1410,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "GetDriverLicenseDate": 19900101,
@@ -1331,6 +1421,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1340,6 +1431,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "EmergencyContactAddress": "</t>
@@ -1349,6 +1441,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>事实上</t>
@@ -1358,6 +1451,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "EmergencyContactPhone": "15961125167",
@@ -1368,6 +1462,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未婚</t>
@@ -1377,6 +1472,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverNation": "</t>
@@ -1386,6 +1482,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>汉族</t>
@@ -1395,6 +1492,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverAddress": "</t>
@@ -1404,6 +1502,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>常州</t>
@@ -1413,6 +1512,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverGender": "</t>
@@ -1422,6 +1522,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>男</t>
@@ -1431,6 +1532,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverType": "C1",
@@ -1442,6 +1544,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王小庆</t>
@@ -1451,6 +1554,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverBirthday": 20171227,
@@ -1471,6 +1575,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1480,6 +1585,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "CommercialType": 1,
@@ -1490,6 +1596,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1499,6 +1606,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "DriverContactAddress": "</t>
@@ -1508,6 +1616,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1517,6 +1626,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "EmergencyContact": null,
@@ -1550,6 +1660,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1559,6 +1670,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "CourseName": "</t>
@@ -1568,6 +1680,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1577,6 +1690,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Duration": 2,
@@ -1687,6 +1801,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>乘客</t>
@@ -1696,6 +1811,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1617",
         "PassengerGender": "</t>
@@ -1705,6 +1821,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>男</t>
@@ -1714,6 +1831,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "State": 0,
@@ -1777,6 +1895,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>订单号必填</t>
@@ -1786,6 +1905,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Detail": "</t>
@@ -1795,6 +1915,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1804,6 +1925,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Result": "</t>
@@ -1813,6 +1935,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1822,6 +1945,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "UpdateTime": 20171230013217,
@@ -1845,6 +1969,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1854,6 +1979,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PunishReason": "</t>
@@ -1863,6 +1989,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1872,6 +1999,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PunishResult": "</t>
@@ -1881,6 +2009,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1890,6 +2019,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "PunishTime": 20171227000000,
@@ -1915,6 +2045,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1924,6 +2055,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "Level": 5,
@@ -1934,6 +2066,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>必填</t>
@@ -1943,6 +2076,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>",
         "UpdateTime": 20171230013418,
@@ -1952,12 +2086,20 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>司机端注册后后台完善资料后点击更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人小客车合乘驾驶员行程发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1983,6 +2125,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2020,6 +2163,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2031,7 +2175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2092,15 +2236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2119,49 +2254,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2489,628 +2628,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="2" width="57.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="10.875" style="10"/>
+    <col min="2" max="2" width="57.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="92.375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="316" thickBot="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="331.5" thickBot="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="189.75" thickBot="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="252.75" thickBot="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="315.75" thickBot="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="284.25" thickBot="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="315.75" thickBot="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="181" thickBot="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+    <row r="8" spans="1:5" ht="51.95" customHeight="1" thickBot="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="252.75" thickBot="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="241" thickBot="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+    <row r="10" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6" thickBot="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="205.5" thickBot="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="301" thickBot="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+    <row r="13" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="252.75" thickBot="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" customHeight="1">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.6" customHeight="1">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.6" customHeight="1">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="237" thickBot="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="205.5" thickBot="1">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="271" thickBot="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+    <row r="28" spans="1:5" ht="205.5" thickBot="1">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="301" thickBot="1">
-      <c r="A7" s="3">
+    <row r="29" spans="1:5" ht="205.5" thickBot="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="52" customHeight="1">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="241" thickBot="1">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" thickBot="1">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.6" thickBot="1">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="196" thickBot="1">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" thickBot="1">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" thickBot="1">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="241" thickBot="1">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="40" thickBot="1">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="27" thickBot="1">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" thickBot="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A27" s="6">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" thickBot="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" thickBot="1">
-      <c r="A29" s="3">
-        <v>22</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A30" s="6">
-        <v>23</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="409.6" customHeight="1">
-      <c r="A32" s="6">
-        <v>24</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="226" thickBot="1">
-      <c r="A34" s="3">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="196" thickBot="1">
-      <c r="A35" s="3">
-        <v>26</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="196" thickBot="1">
-      <c r="A36" s="3">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="196" thickBot="1">
-      <c r="A37" s="3">
-        <v>28</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="3">
-        <v>29</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>30</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1">
-      <c r="A41" s="3">
-        <v>31</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1">
-      <c r="A42" s="3">
-        <v>32</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1">
-      <c r="A43" s="3">
-        <v>33</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="11"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>序号</t>
   </si>
@@ -2094,12 +2094,91 @@
     <t>私人小客车合乘驾驶员行程发布</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoDriverApp",
+    "baseInfoDriverApp": {
+        "Companyld": "58a30c05061d53264c182029",
+        "Address": 9876543,
+        "Licenseld": "12345677",
+        "NetType": 1,
+        "AppVersion": "1.0.0",
+        "MapType": 2,
+        "State": 0,
+        "Flag": 2,
+        "UpdateTime": 20171230021155,
+        "DriverPhone": "15961125167",
+        "LicenseId": "124",
+        "CompanyId": "zncx"
+    },</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "operateLogout",
+    "operateLogout": {
+        "CompanyId": "zncx",
+        "LicenseId": "1234567",
+        "VehicleNo": "122",
+        "LogoutTime": 20171230022652,
+        "Longitude": 118.77939204109963,
+        "Latitude": 32.04164652244173,
+        "Encrypt": 2,
+        "UpdateTime": 20171230022652,
+        "Flag": 1
+    },</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "orderCancel",
+    "orderCancel": {
+        "CompanyId": "zncx",
+        "Address": 340000,
+        "OrderId": "5a4689f325136814f6616ac4",
+        "OrderTime": 20171230023115,
+        "CancelTime": 20171230023153,
+        "Operator": 1,
+        "CancelTypeCode": 1,
+        "CancelReason": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘客提前撤销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "UpdateTime": 20171230023153,
+        "Flag": 1
+    },</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2298,9 +2377,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2628,22 +2707,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="10"/>
-    <col min="2" max="2" width="57.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="92.375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="10"/>
+    <col min="1" max="1" width="11" style="10"/>
+    <col min="2" max="2" width="57.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="158.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10"/>
+    <col min="5" max="5" width="169.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="331.5" thickBot="1">
+    <row r="2" spans="1:5" ht="301" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2675,7 +2755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="189.75" thickBot="1">
+    <row r="3" spans="1:5" ht="181" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2690,7 +2770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="252.75" thickBot="1">
+    <row r="4" spans="1:5" ht="241" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2705,7 +2785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="315.75" thickBot="1">
+    <row r="5" spans="1:5" ht="301" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2720,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="284.25" thickBot="1">
+    <row r="6" spans="1:5" ht="271" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2735,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="315.75" thickBot="1">
+    <row r="7" spans="1:5" ht="301" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2750,7 +2830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:5" ht="52" customHeight="1" thickBot="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2765,7 +2845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="252.75" thickBot="1">
+    <row r="9" spans="1:5" ht="241" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2780,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29.25" thickBot="1">
+    <row r="10" spans="1:5" ht="16" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2808,7 +2888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="205.5" thickBot="1">
+    <row r="12" spans="1:5" ht="196" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2823,20 +2903,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.25" thickBot="1">
+    <row r="13" spans="1:5" ht="271" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" thickBot="1">
+    <row r="14" spans="1:5" ht="16" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2849,7 +2931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="252.75" thickBot="1">
+    <row r="15" spans="1:5" ht="241" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2864,7 +2946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="409.5" customHeight="1" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2879,7 +2961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.6" customHeight="1">
+    <row r="17" spans="1:5" ht="409.5" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2894,20 +2976,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" thickBot="1">
+    <row r="18" spans="1:5" ht="241" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:5" ht="409.5" customHeight="1" thickBot="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2922,20 +3006,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.25" thickBot="1">
+    <row r="20" spans="1:5" ht="226" thickBot="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+    <row r="21" spans="1:5" ht="409.5" customHeight="1" thickBot="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2950,7 +3036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="409.6" customHeight="1">
+    <row r="22" spans="1:5" ht="409.5" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2965,7 +3051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.25" thickBot="1">
+    <row r="23" spans="1:5" ht="16" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2978,7 +3064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.6" customHeight="1" thickBot="1">
+    <row r="24" spans="1:5" ht="409.5" customHeight="1" thickBot="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2993,7 +3079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.6" customHeight="1">
+    <row r="25" spans="1:5" ht="409.5" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3008,7 +3094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="237" thickBot="1">
+    <row r="26" spans="1:5" ht="226" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3023,7 +3109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="205.5" thickBot="1">
+    <row r="27" spans="1:5" ht="196" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3038,7 +3124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="205.5" thickBot="1">
+    <row r="28" spans="1:5" ht="196" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3053,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="205.5" thickBot="1">
+    <row r="29" spans="1:5" ht="196" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3068,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1">
+    <row r="30" spans="1:5" ht="16" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3094,7 +3180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1">
+    <row r="32" spans="1:5" ht="16" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3107,7 +3193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1">
+    <row r="33" spans="1:5" ht="16" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3120,7 +3206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1">
+    <row r="34" spans="1:5" ht="16" thickBot="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3137,7 +3223,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -921,377 +921,6 @@
       <t>{
     "Source": "0",
     "CompanyId": "zncx",
-    "IPCType": "baseInfoVehicle",
-    "baseInfoVehicle": {
-        "CompanyId": "zncx",
-        "FareType": "590c8e423beda6051b5afa26",
-        "GPSIMEI": "4",
-        "GPSModel": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "GPSBrand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "FeePrintId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "FixState": "1",
-        "TransArea": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "TransAgency": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "EngineDisplace": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "FuelType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "VIN": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "EngineId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "VehicleColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "VehicleType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "Model": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "Brand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "PlateColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "RegisterDate": "2017-12-26",
-        "GPSlnstallDate": 20171226,
-        "NextFixDate": "2017-12-26",
-        "CertifyDateB": 20171226,
-        "TransDateStop": 20171226,
-        "TransDateStart": 20171226,
-        "CertifyDateA": 20171226,
-        "CheckState": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已审</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "Certificate": "122",
-        "Seats": 5,
-        "VehicleNo": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>皖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MD0456",
-        "OwnerName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",
-        "Address": 340000,
-        "CommercialType": 1,
-        "PhotoId": null,
-        "PhotoIdURL": null,
-        "UpdateTime": 20171230005700,
-        "Flag": 2,
-        "Commercial-Type": 1
-    },</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "Source": "0",
-    "CompanyId": "zncx",
     "IPCType": "baseInfoVehicleInsurance",
     "baseInfoVehicleInsurance": {
         "InsurEff": 20171230,
@@ -2169,6 +1798,395 @@
       <t>",
         "UpdateTime": 20171230023153,
         "Flag": 1
+    },</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoVehicleTotalMile",
+    "baseInfoVehicleTotalMile": {
+        "VehicleNo": "皖MD0456",
+        "UpdateTime": 20171230213926,
+        "TotalMile": 723,
+        "CompanyId": "zncx",
+        "Flag": 2
+    },</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoVehicle",
+    "baseInfoVehicle": {
+        "CompanyId": "zncx",
+        "FareType": "590c8e423beda6051b5afa26",
+        "GPSIMEI": "4",
+        "GPSModel": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "GPSBrand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "FeePrintId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "FixState": "1",
+        "TransArea": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "TransAgency": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "EngineDisplace": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "FuelType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "VIN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "EngineId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "VehicleColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "VehicleType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "Model": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "Brand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "PlateColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "RegisterDate": "2017-12-26",
+        "GPSlnstallDate": 20171226,
+        "NextFixDate": "2017-12-26",
+        "CertifyDateB": 20171226,
+        "TransDateStop": 20171226,
+        "TransDateStart": 20171226,
+        "CertifyDateA": 20171226,
+        "CheckState": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "Certificate": "122",
+        "Seats": 5,
+        "VehicleNo": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MD0456",
+        "OwnerName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "Address": 340000,
+        "CommercialType": 1,
+        "PhotoId": null,
+        "PhotoIdURL": null,
+        "UpdateTime": 20171230005700,
+        "Flag": 2,
+        "Commercial-Type": 1
     },</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2333,7 +2351,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2373,6 +2391,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2711,7 +2732,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2752,7 +2773,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="181" thickBot="1">
@@ -2838,11 +2859,11 @@
         <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="241" thickBot="1">
@@ -2853,21 +2874,23 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1">
+    <row r="10" spans="1:5" ht="166" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -2881,7 +2904,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
@@ -2896,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
@@ -2911,7 +2934,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
@@ -2939,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
@@ -2969,7 +2992,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
@@ -2984,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
@@ -2999,7 +3022,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
@@ -3014,7 +3037,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
@@ -3044,7 +3067,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
@@ -3072,7 +3095,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="s">
@@ -3087,7 +3110,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
@@ -3102,7 +3125,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
@@ -3117,7 +3140,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
@@ -3132,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
@@ -3147,7 +3170,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
@@ -3172,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -2189,6 +2189,22 @@
         "Commercial-Type": 1
     },</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoDriverStat",
+    "baseInfoDriverStat": {
+        "LicenseId": "BBB",
+        "ComplainedCount": 2,
+        "Cycle": 201712,
+        "OrderCount": 2,
+        "UpdateTime": 20171230230552,
+        "CompanyId": "zncx",
+        "Flag": 2
+    },</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2731,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2941,14 +2957,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1">
+    <row r="14" spans="1:5" ht="196" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
         <v>14</v>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>序号</t>
   </si>
@@ -2207,12 +2207,54 @@
     },</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "operatePay",
+    "operatePay": {
+        "OrderId": "5a46668d30aab10401d78c73",
+        "DriverName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="1"/>
+      </rPr>
+      <t>王小庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+        "LicenseId": "1234567",
+        "VehicleNo": "122",
+        "BookDepTime": 20171230000013,
+        "DepLongitude": 118.77987451486614,
+        "DepLatitude": 32.042838194143265,
+        "DestLongitude": 118.77886344685896,
+        "DestLatitude": 32.04436446084898,
+        "UpdateTime": 20171230233746,
+        "CompanyId": "zncx",
+        "Flag": 1,
+        "Encrypt": 2
+    },</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2278,6 +2320,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lantinghei SC Demibold"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2747,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3092,14 +3140,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
+    <row r="23" spans="1:5" ht="288" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
         <v>38</v>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>序号</t>
   </si>
@@ -1083,11 +1083,9 @@
     "CompanyId": "zncx",
     "IPCType": "orderCreate",
     "orderCreate": {
-        "CompanyId": "zncx",
-        "Address": 340000,
-        "OrderId": "5a46668d30aab10401d78c73",
-        "DepartTime": 20171229,
-        "OrderTime": 20171230,
+        "OrderId": "5a4ef9e43470d509ea09c331",
+        "DepartTime": 20180105,
+        "OrderTime": 20180105,
         "PassengerNote": "",
         "Departure": "</t>
     </r>
@@ -1096,10 +1094,73 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">江苏省南京市鼓楼区华侨路街道爱德商务中心大涧银巷</t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">江苏省南京市鼓楼区华侨路街道上海路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2--8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">号汉庭酒店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">南京新街口上海路店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)",
+        "DepLongitude": 32.04393616593137,
+        "DepLatitude": 118.77682179228681,
+        "Destination": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进香河卫巷</t>
     </r>
     <r>
       <rPr>
@@ -1116,7 +1177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">号</t>
@@ -1130,56 +1191,14 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">",
-        "DepLongitude": 32.04357017126481,
-        "DepLatitude": 118.7774966857004,
-        "Destination": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">珠江路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">号附近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">",
-        "DestLongitude": 32.050621,
-        "DestLatitude": 118.785448,
+        "DestLongitude": 32.052155,
+        "DestLatitude": 118.789265,
         "Encrypt": 2,
         "FareType": "",
-        "UpdateTime": 20171230000013,
+        "UpdateTime": 20180105120700,
+        "CompanyId": "zncx",
         "Flag": 1
-    }</t>
+    },</t>
     </r>
   </si>
   <si>
@@ -1194,15 +1213,14 @@
     "CompanyId": "zncx",
     "IPCType": "orderMatch",
     "orderMatch": {
-        "CompanyId": "zncx",
-        "Address": 340000,
-        "OrderId": "5a46668d30aab10401d78c73",
-        "Longitude": 118.77935937925312,
-        "Latitude": 32.042372541360166,
+        "OrderId": "5a4ef9e43470d509ea09c331",
+        "Longitude": 118.78090714993031,
+        "Latitude": 32.042011986733385,
         "Encrypt": 2,
         "LicenseId": "",
-        "DistributeTime": 20171230000030,
-        "UpdateTime": 20171230000030,
+        "DistributeTime": 20180105120806,
+        "UpdateTime": 20180105120806,
+        "CompanyId": "zncx",
         "Flag": 1
     },</t>
   </si>
@@ -1274,6 +1292,33 @@
         "UpdateTime": 20171230000020,
         "Flag": 1
     },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">多余
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"UpdateTime": 20171230000020,
+        "Flag": 1</t>
+    </r>
   </si>
   <si>
     <t>司机端点击出车</t>
@@ -1352,53 +1397,98 @@
     },</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">少</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DestLongitude
+DestLatitude
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多余：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"UpdateTime": 20171230000053,
+        "Flag": 1</t>
+    </r>
+  </si>
+  <si>
     <t>司机端点击目的地</t>
   </si>
   <si>
     <t>经营支付信息</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
+    <t>{
     "Source": "0",
     "CompanyId": "zncx",
     "IPCType": "operatePay",
     "operatePay": {
-        "OrderId": "5a46668d30aab10401d78c73",
-        "DriverName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">王小庆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">",
-        "LicenseId": "1234567",
-        "VehicleNo": "122",
-        "BookDepTime": 20171230000013,
-        "DepLongitude": 118.77987451486614,
-        "DepLatitude": 32.042838194143265,
-        "DestLongitude": 118.77886344685896,
-        "DestLatitude": 32.04436446084898,
-        "UpdateTime": 20171230233746,
+        "BookModel": "432",
+        "LicenseId": "123456789",
+        "DriverName": "http://localhost:3005/uploader/c7ce7804-245d-481f-9c61-dde6b7f1559e.jpeg",
+        "VehicleNo": "",
+        "OrderId": "5a4ef9e43470d509ea09c331",
+        "FareType": "5a4edbbf180aaa1eb9b0bfd9",
+        "BookDepTime": 20180105120603,
+        "DepLongitude": 118.7768163606186,
+        "DepLatitude": 32.04353094992949,
+        "DepTime": 20180105120839,
+        "DestLongitude": 118.7791976184293,
+        "DestLatitude": 32.04202848209323,
+        "DestTime": 20180105120854,
+        "DriveMile": 1,
+        "DriveTime": 0.015,
+        "FactPrice": 18,
+        "Price": 18,
+        "FarUpPrice": 0,
+        "OtherUpPrice": 0,
+        "PayState": "1",
+        "PayTime": "2018-01-05 12:09:11",
+        "OrderMatchTime": null,
+        "InvoiceStatus": "2",
+        "OnArea": 320106,
+        "DestArea": "320104",
+        "UpdateTime": 20180105120911,
         "CompanyId": "zncx",
         "Flag": 1,
         "Encrypt": 2
     },</t>
-    </r>
   </si>
   <si>
     <t>乘客端点击支付</t>
@@ -1407,26 +1497,74 @@
     <t>驾驶员定位信息</t>
   </si>
   <si>
-    <t>{
+    <r>
+      <t xml:space="preserve">{
     "Source": "0",
     "CompanyId": "zncx",
     "IPCType": "positionDriver",
     "positionDriver": {
-        "CompanyId": "zncx",
-        "LicenseId": "1234567",
-        "VehicleNo": "122",
-        "PositionTime": 20171230000322,
-        "Longitude": 118.77555202152142,
-        "Latitude": 32.04253737117694,
+        "LicenseId": "123456789",
+        "DriverRegionCode": 340000,
+        "VehicleNo": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">苏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">D299XM",
+        "PositionTime": 20180105111344,
+        "Longitude": 118.77631480384551,
+        "Latitude": 32.04173875557455,
         "Encrypt": 1,
         "Direction": 0,
         "Elevation": 0,
         "Speed": 0,
-        "BizStatus": 3,
+        "BizStatus": 4,
         "OrderId": "0",
-        "UpdateTime": 20171230000322,
+        "UpdateTime": 20180105111344,
+        "CompanyId": "zncx",
         "Flag": 1
     },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">多余 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Flag": 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   "UpdateTime": 20180105111344,</t>
+    </r>
   </si>
   <si>
     <t>司机端在出车期间持续发送</t>
@@ -1459,6 +1597,21 @@
     },</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">多余 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Flag": 1
+   "UpdateTime": 20180105111344,</t>
+    </r>
+  </si>
+  <si>
     <t>乘客评价信息</t>
   </si>
   <si>
@@ -1562,6 +1715,31 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">ComplaintTime
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">多余 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Flag": 1
+   "UpdateTime": 20180105111344,</t>
+    </r>
+  </si>
+  <si>
     <t>驾驶员处罚信息</t>
   </si>
   <si>
@@ -1699,6 +1877,31 @@
         "CompanyId": "zncx",
         "Flag": 2
     },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">为日期
+多余 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Flag": 1
+   "UpdateTime": 20180105111344,</t>
     </r>
   </si>
   <si>
@@ -1727,7 +1930,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1794,6 +1997,39 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1873,7 +2109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1934,11 +2170,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2025,8 +2281,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2337,24 +2593,26 @@
       <c r="C19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="226" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>58</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="409.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2362,14 +2620,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="409.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2377,29 +2635,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="E22" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="409.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2407,14 +2667,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="E24" s="14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="409.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,72 +2684,82 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="E25" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="226" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="196" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
@@ -2497,25 +2769,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>84</v>
+      <c r="B31" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,12 +2795,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,12 +2808,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2821,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="700" windowWidth="29540" windowHeight="19420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31060" windowHeight="17140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>序号</t>
   </si>
@@ -155,10 +155,6 @@
         "State": 0,
         "CompanyId": "zncx"
     },</t>
-  </si>
-  <si>
-    <t>StopDate
-CertifyDate</t>
   </si>
   <si>
     <t>网约车平台公司运价信息</t>
@@ -609,9 +605,6 @@
     },</t>
   </si>
   <si>
-    <t>InsurExp</t>
-  </si>
-  <si>
     <t>网约车车辆里程信息</t>
   </si>
   <si>
@@ -691,21 +684,6 @@
   </si>
   <si>
     <t>驾驶员统计信息</t>
-  </si>
-  <si>
-    <t>{
-    "Source": "0",
-    "CompanyId": "zncx",
-    "IPCType": "baseInfoDriverStat",
-    "baseInfoDriverStat": {
-        "LicenseId": "BBB",
-        "ComplainedCount": 2,
-        "Cycle": 201712,
-        "OrderCount": 2,
-        "UpdateTime": 20171230230552,
-        "CompanyId": "zncx",
-        "Flag": 2
-    },</t>
   </si>
   <si>
     <t>乘客基本信息</t>
@@ -790,35 +768,6 @@
         "UpdateTime": 20171230000020,
         "Flag": 1
     },</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">多余
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"UpdateTime": 20171230000020,
-        "Flag": 1</t>
-    </r>
   </si>
   <si>
     <t>司机端点击出车</t>
@@ -1021,22 +970,6 @@
     },</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">多余 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Flag": 1
-   "UpdateTime": 20180105111344,</t>
-    </r>
-  </si>
-  <si>
     <t>乘客评价信息</t>
   </si>
   <si>
@@ -1304,33 +1237,6 @@
         "CompanyId": "zncx",
         "Flag": 2
     },</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TestDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为日期
-多余 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"Flag": 1
-   "UpdateTime": 20180105111344,</t>
     </r>
   </si>
   <si>
@@ -1402,11 +1308,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    "UpdateTime": 20171230022652,
-        "Flag": 1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "Source": "0",
     "CompanyId": "zncx",
@@ -1418,27 +1319,6 @@
         "CompanyId": "zncx",
         "Flag": 2
     },</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Address </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1841,134 +1721,6 @@
   </si>
   <si>
     <t>照片</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  StartTime:String, // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> V8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>培训开始时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  StopTime:String, // </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> V8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>培训结束时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1989,56 +1741,6 @@
         "LicenseId": "124",
         "CompanyId": "zncx"
     },</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Companyld</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？？</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">必填 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">TafficViolationCount </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2383,6 +2085,54 @@
         <charset val="134"/>
       </rPr>
       <t>没有</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoDriverStat",
+    "baseInfoDriverStat": {
+        "LicenseId": "AAA",
+        "Cycle": 201712,
+        "Flag": 1,
+        "ComplainedCount": 1,
+        "TafficViolationCount": 0,
+        "OrderCount": 3,
+        "CompanyId": "zncx"
+    },</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECKED</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Companyld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？？</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3040,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3148,8 +2898,8 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
+      <c r="D6" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -3160,13 +2910,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
+      <c r="D7" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -3177,16 +2927,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240">
@@ -3194,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>27</v>
+      <c r="D9" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -3211,16 +2961,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409">
@@ -3228,16 +2978,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="195">
@@ -3245,13 +2995,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -3262,16 +3012,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="195">
@@ -3279,16 +3029,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="240">
@@ -3296,16 +3046,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" customHeight="1">
@@ -3313,16 +3063,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1">
@@ -3330,16 +3080,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="240">
@@ -3347,16 +3097,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1">
@@ -3364,16 +3114,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="225">
@@ -3381,16 +3131,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1">
@@ -3398,16 +3148,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1">
@@ -3415,16 +3165,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409">
@@ -3432,16 +3182,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1">
@@ -3449,16 +3199,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1">
@@ -3466,16 +3216,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="225">
@@ -3483,16 +3233,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="195">
@@ -3500,13 +3250,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -3517,13 +3267,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
@@ -3534,13 +3284,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -3551,12 +3301,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1">
@@ -3564,12 +3314,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3577,12 +3327,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3590,12 +3340,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3603,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -191,393 +191,6 @@
     <t>车辆基本信息</t>
   </si>
   <si>
-    <r>
-      <t>{
-    "Source": "0",
-    "CompanyId": "zncx",
-    "IPCType": "baseInfoVehicle",
-    "baseInfoVehicle": {
-        "CompanyId": "zncx",
-        "FareType": "590c8e423beda6051b5afa26",
-        "GPSIMEI": "4",
-        "GPSModel": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "GPSBrand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FeePrintId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FixState": "1",
-        "TransArea": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "TransAgency": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "EngineDisplace": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FuelType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VIN": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "EngineId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VehicleColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VehicleType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Model": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Brand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "PlateColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "RegisterDate": "2017-12-26",
-        "GPSlnstallDate": 20171226,
-        "NextFixDate": "2017-12-26",
-        "CertifyDateB": 20171226,
-        "TransDateStop": 20171226,
-        "TransDateStart": 20171226,
-        "CertifyDateA": 20171226,
-        "CheckState": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已审</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Certificate": "122",
-        "Seats": 5,
-        "VehicleNo": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>皖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>MD0456",
-        "OwnerName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Address": 340000,
-        "CommercialType": 1,
-        "PhotoId": null,
-        "PhotoIdURL": null,
-        "UpdateTime": 20171230005700,
-        "Flag": 2,
-        "Commercial-Type": 1
-    },</t>
-    </r>
-  </si>
-  <si>
     <t>更新我的车辆无效，没日志产生</t>
   </si>
   <si>
@@ -779,9 +392,6 @@
     <t>司机端点击收车</t>
   </si>
   <si>
-    <t>经营出发信息</t>
-  </si>
-  <si>
     <t>司机端接单后去接乘客，乘客点击确认上车</t>
   </si>
   <si>
@@ -802,59 +412,6 @@
         "UpdateTime": 20171230000053,
         "Flag": 1
     },</t>
-  </si>
-  <si>
-    <r>
-      <t>少</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DestLongitude
-DestLatitude
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">多余：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"UpdateTime": 20171230000053,
-        "Flag": 1</t>
-    </r>
   </si>
   <si>
     <t>司机端点击目的地</t>
@@ -1284,12 +841,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   "LicenseId": "",
-        "FareType": "",
-        "VehicleNo": "",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "Source": "0",
     "CompanyId": "zncx",
@@ -1977,40 +1528,6 @@
         "CompanyId": "zncx",
         "Flag": 1
     },</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UpdateTime Flag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须 LicenseId为空</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2133,6 +1650,492 @@
         <charset val="134"/>
       </rPr>
       <t>？？</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoVehicle",
+    "baseInfoVehicle": {
+        "CompanyId": "zncx",
+        "FareType": "590c8e423beda6051b5afa26",
+        "GPSIMEI": "4",
+        "GPSModel": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "GPSBrand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FeePrintId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FixState": "1",
+        "TransArea": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "TransAgency": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "EngineDisplace": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FuelType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VIN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "EngineId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VehicleColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VehicleType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Model": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Brand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "PlateColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "RegisterDate": "2017-12-26",
+        "GPSlnstallDate": 20171226,
+        "NextFixDate": "2017-12-26",
+        "CertifyDateB": 20171226,
+        "TransDateStop": 20171226,
+        "TransDateStart": 20171226,
+        "CertifyDateA": 20171226,
+        "CheckState": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Certificate": "122",
+        "Seats": 5,
+        "VehicleNo": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>MD0456",
+        "OwnerName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Address": 340000,
+        "CommercialType": 1,
+        "PhotoId": null,
+        "PhotoIdURL": null,
+        "UpdateTime": 20171230005700,
+        "Flag": 2,
+        "Commercial-Type": 1
+    },</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>少</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DestLongitude
+DestLatitude
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多余：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"UpdateTime": 20171230000053,
+        "Flag": 1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营出发信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "LicenseId": "",
+        "FareType": "",
+        "VehicleNo": "",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UpdateTime Flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须 LicenseId为空</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2790,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2899,7 +2902,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -2916,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -2930,13 +2933,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240">
@@ -2944,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -2961,16 +2964,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409">
@@ -2978,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="195">
@@ -2995,13 +2998,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -3012,16 +3015,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="195">
@@ -3029,16 +3032,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="240">
@@ -3046,16 +3049,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" customHeight="1">
@@ -3063,16 +3066,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1">
@@ -3080,16 +3083,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="240">
@@ -3097,16 +3100,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1">
@@ -3114,16 +3117,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="225">
@@ -3131,16 +3134,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1">
@@ -3148,16 +3151,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1">
@@ -3165,16 +3168,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409">
@@ -3182,16 +3185,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1">
@@ -3199,16 +3202,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1">
@@ -3216,16 +3219,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="225">
@@ -3233,16 +3236,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="195">
@@ -3250,13 +3253,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -3267,10 +3270,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>11</v>
@@ -3284,10 +3287,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>11</v>
@@ -3301,12 +3304,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1">
@@ -3314,12 +3317,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3327,12 +3330,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3340,12 +3343,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3353,7 +3356,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>

--- a/doc/zn接口测试.xlsx
+++ b/doc/zn接口测试.xlsx
@@ -191,6 +191,393 @@
     <t>车辆基本信息</t>
   </si>
   <si>
+    <r>
+      <t>{
+    "Source": "0",
+    "CompanyId": "zncx",
+    "IPCType": "baseInfoVehicle",
+    "baseInfoVehicle": {
+        "CompanyId": "zncx",
+        "FareType": "590c8e423beda6051b5afa26",
+        "GPSIMEI": "4",
+        "GPSModel": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "GPSBrand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FeePrintId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FixState": "1",
+        "TransArea": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "TransAgency": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "EngineDisplace": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "FuelType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VIN": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "EngineId": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VehicleColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "VehicleType": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Model": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Brand": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "PlateColor": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "RegisterDate": "2017-12-26",
+        "GPSlnstallDate": 20171226,
+        "NextFixDate": "2017-12-26",
+        "CertifyDateB": 20171226,
+        "TransDateStop": 20171226,
+        "TransDateStart": 20171226,
+        "CertifyDateA": 20171226,
+        "CheckState": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Certificate": "122",
+        "Seats": 5,
+        "VehicleNo": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>MD0456",
+        "OwnerName": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>",
+        "Address": 340000,
+        "CommercialType": 1,
+        "PhotoId": null,
+        "PhotoIdURL": null,
+        "UpdateTime": 20171230005700,
+        "Flag": 2,
+        "Commercial-Type": 1
+    },</t>
+    </r>
+  </si>
+  <si>
     <t>更新我的车辆无效，没日志产生</t>
   </si>
   <si>
@@ -392,6 +779,9 @@
     <t>司机端点击收车</t>
   </si>
   <si>
+    <t>经营出发信息</t>
+  </si>
+  <si>
     <t>司机端接单后去接乘客，乘客点击确认上车</t>
   </si>
   <si>
@@ -412,6 +802,59 @@
         "UpdateTime": 20171230000053,
         "Flag": 1
     },</t>
+  </si>
+  <si>
+    <r>
+      <t>少</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DestLongitude
+DestLatitude
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">多余：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"UpdateTime": 20171230000053,
+        "Flag": 1</t>
+    </r>
   </si>
   <si>
     <t>司机端点击目的地</t>
@@ -841,6 +1284,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">   "LicenseId": "",
+        "FareType": "",
+        "VehicleNo": "",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "Source": "0",
     "CompanyId": "zncx",
@@ -1528,6 +1977,40 @@
         "CompanyId": "zncx",
         "Flag": 1
     },</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UpdateTime Flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须 LicenseId为空</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1650,492 +2133,6 @@
         <charset val="134"/>
       </rPr>
       <t>？？</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "Source": "0",
-    "CompanyId": "zncx",
-    "IPCType": "baseInfoVehicle",
-    "baseInfoVehicle": {
-        "CompanyId": "zncx",
-        "FareType": "590c8e423beda6051b5afa26",
-        "GPSIMEI": "4",
-        "GPSModel": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "GPSBrand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FeePrintId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FixState": "1",
-        "TransArea": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "TransAgency": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "EngineDisplace": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "FuelType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VIN": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "EngineId": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VehicleColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "VehicleType": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Model": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Brand": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "PlateColor": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "RegisterDate": "2017-12-26",
-        "GPSlnstallDate": 20171226,
-        "NextFixDate": "2017-12-26",
-        "CertifyDateB": 20171226,
-        "TransDateStop": 20171226,
-        "TransDateStart": 20171226,
-        "CertifyDateA": 20171226,
-        "CheckState": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已审</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Certificate": "122",
-        "Seats": 5,
-        "VehicleNo": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>皖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>MD0456",
-        "OwnerName": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>",
-        "Address": 340000,
-        "CommercialType": 1,
-        "PhotoId": null,
-        "PhotoIdURL": null,
-        "UpdateTime": 20171230005700,
-        "Flag": 2,
-        "Commercial-Type": 1
-    },</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>少</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DestLongitude
-DestLatitude
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">多余：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"UpdateTime": 20171230000053,
-        "Flag": 1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营出发信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   "LicenseId": "",
-        "FareType": "",
-        "VehicleNo": "",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UpdateTime Flag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须 LicenseId为空</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2793,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2902,7 +2899,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -2919,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -2933,13 +2930,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240">
@@ -2947,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -2964,16 +2961,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="409">
@@ -2981,16 +2978,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="195">
@@ -2998,13 +2995,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -3015,16 +3012,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="195">
@@ -3032,16 +3029,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="240">
@@ -3049,16 +3046,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.5" customHeight="1">
@@ -3066,16 +3063,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1">
@@ -3083,16 +3080,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="240">
@@ -3100,16 +3097,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1">
@@ -3117,16 +3114,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="225">
@@ -3134,16 +3131,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1">
@@ -3151,16 +3148,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1">
@@ -3168,16 +3165,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409">
@@ -3185,16 +3182,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1">
@@ -3202,16 +3199,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1">
@@ -3219,16 +3216,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="225">
@@ -3236,16 +3233,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="195">
@@ -3253,13 +3250,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
@@ -3270,10 +3267,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>11</v>
@@ -3287,10 +3284,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>11</v>
@@ -3304,12 +3301,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1">
@@ -3317,12 +3314,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3330,12 +3327,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3343,12 +3340,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3356,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
